--- a/DataSets/Таблица_В_временных_характеристик.xlsx
+++ b/DataSets/Таблица_В_временных_характеристик.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shevn\Desktop\KnowlageExtractorApp\DataSets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\Python\KnowledgeExtractorApp\DataSets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412F3CEF-65AB-4B5C-9CD3-618801F6693E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2FE46D-4EE5-4977-9C0B-F6D2DB953228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29760" yWindow="960" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -27,60 +27,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
-    <t>признак</t>
-  </si>
-  <si>
     <t>Временной столбец</t>
   </si>
   <si>
     <t>Ед изм</t>
   </si>
   <si>
-    <r>
-      <t>БольЖив</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Локал</t>
-    </r>
-  </si>
-  <si>
     <t>БольЖив.Время</t>
   </si>
   <si>
-    <r>
-      <t>БольЖив.Локал</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> Интенсив</t>
-    </r>
-  </si>
-  <si>
     <t>Боль.Интенсивн.Время</t>
   </si>
   <si>
@@ -127,13 +82,22 @@
   </si>
   <si>
     <t xml:space="preserve">Тошнота.Время </t>
+  </si>
+  <si>
+    <t>Признак</t>
+  </si>
+  <si>
+    <t>БольЖив.Локал</t>
+  </si>
+  <si>
+    <t>БольЖив.Локал Интенсив</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,55 +106,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF002060"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF002060"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
       <strike/>
       <sz val="12"/>
-      <color rgb="FF002060"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -202,7 +135,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -211,53 +144,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -266,35 +162,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -578,125 +454,126 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.88671875" customWidth="1"/>
-    <col min="2" max="2" width="42.21875" customWidth="1"/>
-    <col min="3" max="3" width="42.109375" customWidth="1"/>
+    <col min="1" max="1" width="35.88671875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="42.21875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="42.109375" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="3" spans="1:3" ht="63" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4" spans="1:3" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5"/>
-    </row>
-    <row r="5" spans="1:3" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="7"/>
-    </row>
-    <row r="6" spans="1:3" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="7"/>
-    </row>
-    <row r="7" spans="1:3" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="7"/>
-    </row>
-    <row r="8" spans="1:3" ht="63" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="7"/>
-    </row>
-    <row r="9" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
+      <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="7"/>
-    </row>
-    <row r="10" spans="1:3" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="7"/>
-    </row>
-    <row r="11" spans="1:3" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="7"/>
-    </row>
-    <row r="12" spans="1:3" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="7"/>
+      <c r="C12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
